--- a/exports/xuat_ban_nhat_template.xlsx
+++ b/exports/xuat_ban_nhat_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dang.nguyenhai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3094E5-8C72-384C-9FAF-2F9ADE5F3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694965B9-B951-3E4F-93FE-D1E7AE775B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="680" windowWidth="27900" windowHeight="15620" xr2:uid="{8C537D27-372B-CB4A-AFD7-387935E050D1}"/>
   </bookViews>
@@ -672,27 +672,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,6 +701,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1092,10 +1092,10 @@
   <cols>
     <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="1"/>
     <col min="10" max="10" width="35.33203125" style="1" customWidth="1"/>
@@ -1103,60 +1103,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="33">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="24">
       <c r="B4" s="4"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="24">
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="24">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="24">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="24">
       <c r="B10" s="5"/>
@@ -1200,64 +1200,64 @@
     </row>
     <row r="14" spans="1:10" ht="28" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="18"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="18"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="18"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="27" t="s">
@@ -1324,34 +1324,41 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="23">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
@@ -1368,13 +1375,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B24:F24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
